--- a/UIE-X/entity/ls_short_to_socr_format/scene_folder/model.xlsx
+++ b/UIE-X/entity/ls_short_to_socr_format/scene_folder/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>场景</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>中央医疗门诊收费票据-final</t>
+  </si>
+  <si>
+    <t>短文档结构化 #recog拆迁安置协议</t>
   </si>
   <si>
     <t>上海市医疗门诊收费票据-final</t>
@@ -165,7 +168,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,7 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -189,6 +192,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -233,10 +242,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -547,7 +556,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -558,7 +567,7 @@
     <col min="3" max="3" style="8" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,16 +578,16 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75" customFormat="1" s="3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+      <c r="C2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="39">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -589,7 +598,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -600,7 +609,7 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -611,7 +620,7 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -622,7 +631,7 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -633,7 +642,7 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -644,17 +653,17 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75" customFormat="1" s="3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
@@ -788,10 +797,10 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21.75" customFormat="1" s="3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
@@ -903,7 +912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" customFormat="1" s="3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="21.75" customFormat="1" s="3">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -1024,14 +1033,25 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+      <c r="A45" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>5</v>
       </c>
     </row>
